--- a/data/pca/factorExposure/factorExposure_2011-11-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-11-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +720,54 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.01308296496309585</v>
+        <v>-0.01366292157592321</v>
       </c>
       <c r="C2">
-        <v>-0.02790031648497475</v>
+        <v>-0.01287894301238991</v>
       </c>
       <c r="D2">
-        <v>0.01408402421885619</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.02433668200328474</v>
+      </c>
+      <c r="E2">
+        <v>0.01254869224658708</v>
+      </c>
+      <c r="F2">
+        <v>0.03731883809523491</v>
+      </c>
+      <c r="G2">
+        <v>0.008587289381121643</v>
+      </c>
+      <c r="H2">
+        <v>0.02140756722872169</v>
+      </c>
+      <c r="I2">
+        <v>-0.03000916259909039</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +778,54 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.07790401640911609</v>
+        <v>-0.09029198627903642</v>
       </c>
       <c r="C4">
-        <v>-0.05988651600268841</v>
+        <v>-0.0003195467116850438</v>
       </c>
       <c r="D4">
-        <v>0.07100495999515906</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08227640201371476</v>
+      </c>
+      <c r="E4">
+        <v>0.009474577428443449</v>
+      </c>
+      <c r="F4">
+        <v>0.04504124952051889</v>
+      </c>
+      <c r="G4">
+        <v>-0.02087569475591792</v>
+      </c>
+      <c r="H4">
+        <v>-0.03255629861731162</v>
+      </c>
+      <c r="I4">
+        <v>-0.04890462582238642</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.1158090454078731</v>
+        <v>-0.1265564361424611</v>
       </c>
       <c r="C6">
-        <v>-0.05308996091673143</v>
+        <v>-0.02739041405421709</v>
       </c>
       <c r="D6">
-        <v>-0.001090112879541646</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02469591700956872</v>
+      </c>
+      <c r="E6">
+        <v>-0.02286719690500308</v>
+      </c>
+      <c r="F6">
+        <v>0.04884157933168025</v>
+      </c>
+      <c r="G6">
+        <v>-0.04338448568838715</v>
+      </c>
+      <c r="H6">
+        <v>0.1714629458134842</v>
+      </c>
+      <c r="I6">
+        <v>0.03802160730849799</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.0585367397460687</v>
+        <v>-0.06650075016438074</v>
       </c>
       <c r="C7">
-        <v>-0.04173479001506213</v>
+        <v>0.004211692219345256</v>
       </c>
       <c r="D7">
-        <v>0.02965932893488294</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05798076428886756</v>
+      </c>
+      <c r="E7">
+        <v>0.0224240286079758</v>
+      </c>
+      <c r="F7">
+        <v>0.04643842882218149</v>
+      </c>
+      <c r="G7">
+        <v>0.02971437775935652</v>
+      </c>
+      <c r="H7">
+        <v>-0.01148551507751566</v>
+      </c>
+      <c r="I7">
+        <v>0.005258477658918066</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.03911795620922215</v>
+        <v>-0.04408148930841077</v>
       </c>
       <c r="C8">
-        <v>-0.01307676153278415</v>
+        <v>0.005593978234120304</v>
       </c>
       <c r="D8">
-        <v>0.0636797161799826</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02899879992192064</v>
+      </c>
+      <c r="E8">
+        <v>0.006750454442857722</v>
+      </c>
+      <c r="F8">
+        <v>0.07749289015887027</v>
+      </c>
+      <c r="G8">
+        <v>-0.08536615716241487</v>
+      </c>
+      <c r="H8">
+        <v>0.01193814211943743</v>
+      </c>
+      <c r="I8">
+        <v>-0.09342627278098491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.0739144096545031</v>
+        <v>-0.08213612759063031</v>
       </c>
       <c r="C9">
-        <v>-0.04822765670668838</v>
+        <v>0.005406928165457243</v>
       </c>
       <c r="D9">
-        <v>0.06744254532013881</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.07109542056435986</v>
+      </c>
+      <c r="E9">
+        <v>0.02130245583778574</v>
+      </c>
+      <c r="F9">
+        <v>0.03962303393739063</v>
+      </c>
+      <c r="G9">
+        <v>-0.03303701519541655</v>
+      </c>
+      <c r="H9">
+        <v>-0.03372067943854801</v>
+      </c>
+      <c r="I9">
+        <v>-0.05273348981228602</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.02442405655857835</v>
+        <v>-0.05119917225038818</v>
       </c>
       <c r="C10">
-        <v>-0.01183006527490564</v>
+        <v>-0.1388901488603579</v>
       </c>
       <c r="D10">
-        <v>-0.1711429436576721</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1322456664483183</v>
+      </c>
+      <c r="E10">
+        <v>0.02617003170762148</v>
+      </c>
+      <c r="F10">
+        <v>0.05835212614495467</v>
+      </c>
+      <c r="G10">
+        <v>0.03192948217187424</v>
+      </c>
+      <c r="H10">
+        <v>0.03232727078773711</v>
+      </c>
+      <c r="I10">
+        <v>0.03460443024465597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.06890807400075075</v>
+        <v>-0.0739796579506774</v>
       </c>
       <c r="C11">
-        <v>-0.0433364295044731</v>
+        <v>0.01093896236081018</v>
       </c>
       <c r="D11">
-        <v>0.05826608953625765</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06455127860597841</v>
+      </c>
+      <c r="E11">
+        <v>0.004258105596818806</v>
+      </c>
+      <c r="F11">
+        <v>0.03713627662040039</v>
+      </c>
+      <c r="G11">
+        <v>-0.04211934292408021</v>
+      </c>
+      <c r="H11">
+        <v>-0.05656647137861261</v>
+      </c>
+      <c r="I11">
+        <v>-0.06515507451995027</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.06202678565658738</v>
+        <v>-0.06885040365113781</v>
       </c>
       <c r="C12">
-        <v>-0.05374106121604838</v>
+        <v>-0.002621195852848599</v>
       </c>
       <c r="D12">
-        <v>0.04568455734596226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.06050896320606497</v>
+      </c>
+      <c r="E12">
+        <v>0.009654700123976311</v>
+      </c>
+      <c r="F12">
+        <v>0.02666132728759468</v>
+      </c>
+      <c r="G12">
+        <v>-0.01888689296629813</v>
+      </c>
+      <c r="H12">
+        <v>-0.0250070576322311</v>
+      </c>
+      <c r="I12">
+        <v>-0.06259813636007322</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.07038146859475293</v>
+        <v>-0.06999109358148468</v>
       </c>
       <c r="C13">
-        <v>-0.05031452694900664</v>
+        <v>-0.006983789261976289</v>
       </c>
       <c r="D13">
-        <v>0.03539156283432841</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04854674997176166</v>
+      </c>
+      <c r="E13">
+        <v>0.008250341748903203</v>
+      </c>
+      <c r="F13">
+        <v>0.01809214041637582</v>
+      </c>
+      <c r="G13">
+        <v>-0.02133377101345441</v>
+      </c>
+      <c r="H13">
+        <v>-0.04310933495263577</v>
+      </c>
+      <c r="I13">
+        <v>-0.06899810981214816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.02974012012541311</v>
+        <v>-0.04001245606674027</v>
       </c>
       <c r="C14">
-        <v>-0.03121240230064956</v>
+        <v>-0.01923826499499843</v>
       </c>
       <c r="D14">
-        <v>-0.004010666965719554</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02660015075587297</v>
+      </c>
+      <c r="E14">
+        <v>0.02314307105323511</v>
+      </c>
+      <c r="F14">
+        <v>0.02113159841184959</v>
+      </c>
+      <c r="G14">
+        <v>-0.01712444952543623</v>
+      </c>
+      <c r="H14">
+        <v>-0.06752029110781313</v>
+      </c>
+      <c r="I14">
+        <v>-0.02583060389480416</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>0.04162462713377498</v>
+        <v>-0.03954280509282623</v>
       </c>
       <c r="C15">
-        <v>-0.009052809033096453</v>
+        <v>0.00535314053333662</v>
       </c>
       <c r="D15">
-        <v>0.02570584837262407</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.01114220317397353</v>
+      </c>
+      <c r="E15">
+        <v>0.03117306806861814</v>
+      </c>
+      <c r="F15">
+        <v>0.004766656814021496</v>
+      </c>
+      <c r="G15">
+        <v>-0.0294431700262449</v>
+      </c>
+      <c r="H15">
+        <v>-0.03270656995216803</v>
+      </c>
+      <c r="I15">
+        <v>0.01290893768155136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.05808996153402774</v>
+        <v>-0.07034710826262154</v>
       </c>
       <c r="C16">
-        <v>-0.04078850117976842</v>
+        <v>0.00844888566774399</v>
       </c>
       <c r="D16">
-        <v>0.05621868415096367</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06637331332833489</v>
+      </c>
+      <c r="E16">
+        <v>0.004799198357228131</v>
+      </c>
+      <c r="F16">
+        <v>0.03271196682853968</v>
+      </c>
+      <c r="G16">
+        <v>-0.01871919992260098</v>
+      </c>
+      <c r="H16">
+        <v>-0.04313441429898279</v>
+      </c>
+      <c r="I16">
+        <v>-0.04023389268922508</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1213,25 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1242,228 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.06321822432742404</v>
+        <v>-0.06312306222839195</v>
       </c>
       <c r="C20">
-        <v>-0.02962408415767098</v>
+        <v>0.01116675466004069</v>
       </c>
       <c r="D20">
-        <v>0.04719767678908305</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04139422988446705</v>
+      </c>
+      <c r="E20">
+        <v>0.005719048506420969</v>
+      </c>
+      <c r="F20">
+        <v>0.0269445278469914</v>
+      </c>
+      <c r="G20">
+        <v>-0.02069591441591098</v>
+      </c>
+      <c r="H20">
+        <v>-0.04054214603247524</v>
+      </c>
+      <c r="I20">
+        <v>-0.07048519684256407</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.03095059426464051</v>
+        <v>-0.02644265326278796</v>
       </c>
       <c r="C21">
-        <v>-0.01252676249462771</v>
+        <v>0.008715088096246226</v>
       </c>
       <c r="D21">
-        <v>0.01039023803741653</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.01875919143311353</v>
+      </c>
+      <c r="E21">
+        <v>0.0381916846152076</v>
+      </c>
+      <c r="F21">
+        <v>-0.01080534580040075</v>
+      </c>
+      <c r="G21">
+        <v>-0.008195294206471504</v>
+      </c>
+      <c r="H21">
+        <v>0.044119914365375</v>
+      </c>
+      <c r="I21">
+        <v>0.03015867481850129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.08073221370221832</v>
+        <v>-0.07227785107905098</v>
       </c>
       <c r="C22">
-        <v>-0.08373015283721971</v>
+        <v>0.001669318670518048</v>
       </c>
       <c r="D22">
-        <v>0.1306703229408592</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.112530199136522</v>
+      </c>
+      <c r="E22">
+        <v>0.6016620116806094</v>
+      </c>
+      <c r="F22">
+        <v>-0.01956119276282398</v>
+      </c>
+      <c r="G22">
+        <v>0.1983712851822037</v>
+      </c>
+      <c r="H22">
+        <v>0.1373916381630617</v>
+      </c>
+      <c r="I22">
+        <v>0.1335430710537341</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.0816979633227692</v>
+        <v>-0.07324404128584033</v>
       </c>
       <c r="C23">
-        <v>-0.08412392739710405</v>
+        <v>0.002023852139283475</v>
       </c>
       <c r="D23">
-        <v>0.1315824380151401</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1137567892806465</v>
+      </c>
+      <c r="E23">
+        <v>0.6036157509065492</v>
+      </c>
+      <c r="F23">
+        <v>-0.01893749931064893</v>
+      </c>
+      <c r="G23">
+        <v>0.1930295706417862</v>
+      </c>
+      <c r="H23">
+        <v>0.1361130152031357</v>
+      </c>
+      <c r="I23">
+        <v>0.1356867057143107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.07518556056626359</v>
+        <v>-0.08028696978566376</v>
       </c>
       <c r="C24">
-        <v>-0.05153498741153874</v>
+        <v>0.004743875217561946</v>
       </c>
       <c r="D24">
-        <v>0.06040753374888944</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06720632438937872</v>
+      </c>
+      <c r="E24">
+        <v>0.01213519244015759</v>
+      </c>
+      <c r="F24">
+        <v>0.0383858595027694</v>
+      </c>
+      <c r="G24">
+        <v>-0.03672632926245791</v>
+      </c>
+      <c r="H24">
+        <v>-0.02613127601340894</v>
+      </c>
+      <c r="I24">
+        <v>-0.0539611876041126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.07290728168455018</v>
+        <v>-0.0782253952128818</v>
       </c>
       <c r="C25">
-        <v>-0.05743832468544643</v>
+        <v>-0.005264475845162299</v>
       </c>
       <c r="D25">
-        <v>0.05579527231333711</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.06415533244298136</v>
+      </c>
+      <c r="E25">
+        <v>0.01628242248426772</v>
+      </c>
+      <c r="F25">
+        <v>0.03428220829155982</v>
+      </c>
+      <c r="G25">
+        <v>-0.04346265965775639</v>
+      </c>
+      <c r="H25">
+        <v>-0.03481212593618874</v>
+      </c>
+      <c r="I25">
+        <v>-0.06838508521295868</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.04451872945875487</v>
+        <v>-0.04525912693022272</v>
       </c>
       <c r="C26">
-        <v>-0.01483048691251745</v>
+        <v>0.005245368111003206</v>
       </c>
       <c r="D26">
-        <v>0.01337650566458128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01851669705071462</v>
+      </c>
+      <c r="E26">
+        <v>0.04236256318413786</v>
+      </c>
+      <c r="F26">
+        <v>0.02714468487981313</v>
+      </c>
+      <c r="G26">
+        <v>-0.02584445412453021</v>
+      </c>
+      <c r="H26">
+        <v>-0.04813997034396275</v>
+      </c>
+      <c r="I26">
+        <v>0.04594615238568407</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.04033222850498308</v>
+        <v>-0.07204730798158755</v>
       </c>
       <c r="C28">
-        <v>-0.04638089455560923</v>
+        <v>-0.2370178695930118</v>
       </c>
       <c r="D28">
-        <v>-0.3104446451388627</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2134205941719086</v>
+      </c>
+      <c r="E28">
+        <v>0.02976920362098386</v>
+      </c>
+      <c r="F28">
+        <v>0.0504662815318766</v>
+      </c>
+      <c r="G28">
+        <v>-0.02364094777758287</v>
+      </c>
+      <c r="H28">
+        <v>0.06564258932652368</v>
+      </c>
+      <c r="I28">
+        <v>0.07072326536128024</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.0443952757923162</v>
+        <v>-0.05013125247752325</v>
       </c>
       <c r="C29">
-        <v>-0.04129228445537749</v>
+        <v>-0.0229129740282963</v>
       </c>
       <c r="D29">
-        <v>-0.0008921033995344396</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02837980143491658</v>
+      </c>
+      <c r="E29">
+        <v>0.04923388647148075</v>
+      </c>
+      <c r="F29">
+        <v>0.02825823910900401</v>
+      </c>
+      <c r="G29">
+        <v>-0.004339322165391602</v>
+      </c>
+      <c r="H29">
+        <v>-0.09242331644556824</v>
+      </c>
+      <c r="I29">
+        <v>-0.007717438789708266</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.1372950253567496</v>
+        <v>-0.1312073445620027</v>
       </c>
       <c r="C30">
-        <v>-0.09600638314358147</v>
+        <v>-0.008013159945439916</v>
       </c>
       <c r="D30">
-        <v>0.1023490263288525</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.09854528520360555</v>
+      </c>
+      <c r="E30">
+        <v>0.06116078205412188</v>
+      </c>
+      <c r="F30">
+        <v>0.02452469792789574</v>
+      </c>
+      <c r="G30">
+        <v>-0.06963160789251821</v>
+      </c>
+      <c r="H30">
+        <v>0.05792773734231531</v>
+      </c>
+      <c r="I30">
+        <v>-0.1785879527619351</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.04883251674130876</v>
+        <v>-0.04857398305131825</v>
       </c>
       <c r="C31">
-        <v>-0.02541851922764838</v>
+        <v>0.007814095059430917</v>
       </c>
       <c r="D31">
-        <v>0.01906905382789894</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03581479476928054</v>
+      </c>
+      <c r="E31">
+        <v>0.0215774560211527</v>
+      </c>
+      <c r="F31">
+        <v>0.01292331595716903</v>
+      </c>
+      <c r="G31">
+        <v>0.005147338752791638</v>
+      </c>
+      <c r="H31">
+        <v>-0.06686216080435364</v>
+      </c>
+      <c r="I31">
+        <v>-0.01225281700259935</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.03499425118802305</v>
+        <v>-0.03789073094997915</v>
       </c>
       <c r="C32">
-        <v>-0.02961372559834882</v>
+        <v>-0.01961410837053627</v>
       </c>
       <c r="D32">
-        <v>0.02545069708721013</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.01989937954841637</v>
+      </c>
+      <c r="E32">
+        <v>0.04356180987634153</v>
+      </c>
+      <c r="F32">
+        <v>-0.001300452208986634</v>
+      </c>
+      <c r="G32">
+        <v>-0.04701596989473615</v>
+      </c>
+      <c r="H32">
+        <v>-0.003475899646992031</v>
+      </c>
+      <c r="I32">
+        <v>-0.03035762437125202</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.087642271168911</v>
+        <v>-0.09501514107284771</v>
       </c>
       <c r="C33">
-        <v>-0.04458203013979218</v>
+        <v>0.006121175987047425</v>
       </c>
       <c r="D33">
-        <v>0.04838769754944666</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.05566076734510442</v>
+      </c>
+      <c r="E33">
+        <v>0.01480753994848758</v>
+      </c>
+      <c r="F33">
+        <v>0.002979284187111879</v>
+      </c>
+      <c r="G33">
+        <v>-0.003191847102950089</v>
+      </c>
+      <c r="H33">
+        <v>-0.05672923517607803</v>
+      </c>
+      <c r="I33">
+        <v>-0.05720990829232568</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.05956995763387087</v>
+        <v>-0.06794019894609298</v>
       </c>
       <c r="C34">
-        <v>-0.02761204142176794</v>
+        <v>0.01198084306209928</v>
       </c>
       <c r="D34">
-        <v>0.05350366189476875</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04695255923426633</v>
+      </c>
+      <c r="E34">
+        <v>0.01332029300966897</v>
+      </c>
+      <c r="F34">
+        <v>0.02336711583227485</v>
+      </c>
+      <c r="G34">
+        <v>-0.02444260656960536</v>
+      </c>
+      <c r="H34">
+        <v>-0.04443722257889657</v>
+      </c>
+      <c r="I34">
+        <v>-0.05262044105526577</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0.03642186163870399</v>
+        <v>-0.03713948440796449</v>
       </c>
       <c r="C35">
-        <v>-0.01805469825587558</v>
+        <v>0.0009683327406442941</v>
       </c>
       <c r="D35">
-        <v>0.01851690672779053</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.02122436945789283</v>
+      </c>
+      <c r="E35">
+        <v>0.01894914559693571</v>
+      </c>
+      <c r="F35">
+        <v>-0.01556269142220365</v>
+      </c>
+      <c r="G35">
+        <v>0.001756361344569807</v>
+      </c>
+      <c r="H35">
+        <v>-0.03141495086809572</v>
+      </c>
+      <c r="I35">
+        <v>-0.02802229676164564</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.02745088597781651</v>
+        <v>-0.02866703376797157</v>
       </c>
       <c r="C36">
-        <v>-0.01944281745398624</v>
+        <v>-0.001426709003327043</v>
       </c>
       <c r="D36">
-        <v>0.01994133867792299</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02268692026190205</v>
+      </c>
+      <c r="E36">
+        <v>0.0330959100190382</v>
+      </c>
+      <c r="F36">
+        <v>0.02974010139606854</v>
+      </c>
+      <c r="G36">
+        <v>-0.01100361766598052</v>
+      </c>
+      <c r="H36">
+        <v>-0.04029029605494908</v>
+      </c>
+      <c r="I36">
+        <v>-0.0341066420718717</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.05634148149809087</v>
+        <v>-0.04997461544828628</v>
       </c>
       <c r="C38">
-        <v>-0.0108277327888206</v>
+        <v>0.01644910927888001</v>
       </c>
       <c r="D38">
-        <v>0.00401004148891203</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.01861692840709308</v>
+      </c>
+      <c r="E38">
+        <v>0.05106354215053575</v>
+      </c>
+      <c r="F38">
+        <v>-0.0003924660402550658</v>
+      </c>
+      <c r="G38">
+        <v>-0.0002623014791803625</v>
+      </c>
+      <c r="H38">
+        <v>-0.02972970924554732</v>
+      </c>
+      <c r="I38">
+        <v>-0.02532219443277655</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.09645359114169036</v>
+        <v>-0.1036321627931965</v>
       </c>
       <c r="C39">
-        <v>-0.0718010525465356</v>
+        <v>-0.0101188698889683</v>
       </c>
       <c r="D39">
-        <v>0.04554016742084047</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.07720815386634838</v>
+      </c>
+      <c r="E39">
+        <v>0.009665426349224557</v>
+      </c>
+      <c r="F39">
+        <v>0.00923589448192264</v>
+      </c>
+      <c r="G39">
+        <v>-0.04253593453663734</v>
+      </c>
+      <c r="H39">
+        <v>-0.01326062500750923</v>
+      </c>
+      <c r="I39">
+        <v>-0.06929611106000398</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.07826123686021552</v>
+        <v>-0.05746597672614508</v>
       </c>
       <c r="C40">
-        <v>-0.04009746893014774</v>
+        <v>0.0148671824530704</v>
       </c>
       <c r="D40">
-        <v>0.01231242933410894</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03472414468355314</v>
+      </c>
+      <c r="E40">
+        <v>0.04271510015964106</v>
+      </c>
+      <c r="F40">
+        <v>-0.03957973394286141</v>
+      </c>
+      <c r="G40">
+        <v>-0.06416447197844581</v>
+      </c>
+      <c r="H40">
+        <v>0.08895572966339067</v>
+      </c>
+      <c r="I40">
+        <v>-0.278704336592321</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.04810954452690517</v>
+        <v>-0.04665716053022546</v>
       </c>
       <c r="C41">
-        <v>-0.01714435479500822</v>
+        <v>0.01583974247720618</v>
       </c>
       <c r="D41">
-        <v>0.03235464489104941</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03064171885449278</v>
+      </c>
+      <c r="E41">
+        <v>0.003474945163649047</v>
+      </c>
+      <c r="F41">
+        <v>-0.01237767323774456</v>
+      </c>
+      <c r="G41">
+        <v>-0.005016569132088246</v>
+      </c>
+      <c r="H41">
+        <v>-0.03611510164709041</v>
+      </c>
+      <c r="I41">
+        <v>-0.01699273417827196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.05442270207295999</v>
+        <v>-0.05990065893307629</v>
       </c>
       <c r="C43">
-        <v>-0.03002226249331148</v>
+        <v>0.0003912641860945939</v>
       </c>
       <c r="D43">
-        <v>0.007872410885279868</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03584411267319251</v>
+      </c>
+      <c r="E43">
+        <v>0.019518418968129</v>
+      </c>
+      <c r="F43">
+        <v>0.01488719394518519</v>
+      </c>
+      <c r="G43">
+        <v>0.0203885062471446</v>
+      </c>
+      <c r="H43">
+        <v>-0.05762590274380943</v>
+      </c>
+      <c r="I43">
+        <v>0.002123067837341789</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.09418812252225391</v>
+        <v>-0.09341555724219509</v>
       </c>
       <c r="C44">
-        <v>-0.03586572019710269</v>
+        <v>0.0156197050596896</v>
       </c>
       <c r="D44">
-        <v>0.05111615440048729</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.0545822427920196</v>
+      </c>
+      <c r="E44">
+        <v>0.07266073939225025</v>
+      </c>
+      <c r="F44">
+        <v>0.08317657936369578</v>
+      </c>
+      <c r="G44">
+        <v>-0.0726786726878845</v>
+      </c>
+      <c r="H44">
+        <v>-0.04518533231884812</v>
+      </c>
+      <c r="I44">
+        <v>-0.1133646205550272</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1996,199 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.02641299249479565</v>
+        <v>-0.03948832844587365</v>
       </c>
       <c r="C46">
-        <v>-0.02234067000552975</v>
+        <v>0.0001717589947331816</v>
       </c>
       <c r="D46">
-        <v>0.03174803709761068</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.04123220031684999</v>
+      </c>
+      <c r="E46">
+        <v>0.03042807561248079</v>
+      </c>
+      <c r="F46">
+        <v>0.02182852364422898</v>
+      </c>
+      <c r="G46">
+        <v>0.003700054425754042</v>
+      </c>
+      <c r="H46">
+        <v>-0.03885575877050518</v>
+      </c>
+      <c r="I46">
+        <v>-0.005547106915714114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.03545811973844052</v>
+        <v>-0.04289691924573255</v>
       </c>
       <c r="C47">
-        <v>-0.02125774306368937</v>
+        <v>-0.009547952533033121</v>
       </c>
       <c r="D47">
-        <v>-0.005326336637821558</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.0173271407849719</v>
+      </c>
+      <c r="E47">
+        <v>0.04085914893862563</v>
+      </c>
+      <c r="F47">
+        <v>-0.005133749559301428</v>
+      </c>
+      <c r="G47">
+        <v>0.03378415311115683</v>
+      </c>
+      <c r="H47">
+        <v>-0.02343893267478587</v>
+      </c>
+      <c r="I47">
+        <v>-0.04025705859476603</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.03800666182175361</v>
+        <v>-0.04030684429327486</v>
       </c>
       <c r="C48">
-        <v>-0.02815705354095048</v>
+        <v>-0.005369628312318203</v>
       </c>
       <c r="D48">
-        <v>0.02955461136480293</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.0247243835138561</v>
+      </c>
+      <c r="E48">
+        <v>0.03912619762075139</v>
+      </c>
+      <c r="F48">
+        <v>0.01151832396366515</v>
+      </c>
+      <c r="G48">
+        <v>-0.0199723065473303</v>
+      </c>
+      <c r="H48">
+        <v>-0.01990350568802796</v>
+      </c>
+      <c r="I48">
+        <v>-0.006244681271378327</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
-        <v>0.1636928760131627</v>
+        <v>-0.1972512186296161</v>
       </c>
       <c r="C49">
-        <v>-0.04610904904725387</v>
+        <v>-0.01434955891235619</v>
       </c>
       <c r="D49">
-        <v>0.004506244774067054</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.03466143363777252</v>
+      </c>
+      <c r="E49">
+        <v>-0.1842904535118627</v>
+      </c>
+      <c r="F49">
+        <v>0.02007329609375738</v>
+      </c>
+      <c r="G49">
+        <v>0.1379131601913985</v>
+      </c>
+      <c r="H49">
+        <v>0.2443589623796419</v>
+      </c>
+      <c r="I49">
+        <v>-0.008343419623890508</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.04532727721467748</v>
+        <v>-0.04824936656705241</v>
       </c>
       <c r="C50">
-        <v>-0.03026142244955858</v>
+        <v>0.002286993417110143</v>
       </c>
       <c r="D50">
-        <v>0.03043102757618077</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.04075720033780331</v>
+      </c>
+      <c r="E50">
+        <v>0.02481164978592605</v>
+      </c>
+      <c r="F50">
+        <v>0.007683609192522264</v>
+      </c>
+      <c r="G50">
+        <v>-0.002725567139645059</v>
+      </c>
+      <c r="H50">
+        <v>-0.07611062006555387</v>
+      </c>
+      <c r="I50">
+        <v>0.01040423147682447</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.02384004574649045</v>
+        <v>-0.03382713936365197</v>
       </c>
       <c r="C51">
-        <v>-0.004259626542601505</v>
+        <v>-0.003749742340398779</v>
       </c>
       <c r="D51">
-        <v>-0.00243982514983825</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.001105712474750113</v>
+      </c>
+      <c r="E51">
+        <v>0.005351794895832933</v>
+      </c>
+      <c r="F51">
+        <v>0.01349935846668553</v>
+      </c>
+      <c r="G51">
+        <v>0.02297161340421673</v>
+      </c>
+      <c r="H51">
+        <v>0.02333860410272851</v>
+      </c>
+      <c r="I51">
+        <v>0.00117896369598634</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1537322093655097</v>
+        <v>-0.1608137491380016</v>
       </c>
       <c r="C53">
-        <v>-0.0806024050544686</v>
+        <v>-0.03566644357496872</v>
       </c>
       <c r="D53">
-        <v>-0.01213000735853926</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.04380537181455341</v>
+      </c>
+      <c r="E53">
+        <v>-0.03317709550085939</v>
+      </c>
+      <c r="F53">
+        <v>-0.003915101160884671</v>
+      </c>
+      <c r="G53">
+        <v>0.006966514223016504</v>
+      </c>
+      <c r="H53">
+        <v>-0.2003409025975915</v>
+      </c>
+      <c r="I53">
+        <v>0.0131302956933092</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.05996984155307983</v>
+        <v>-0.06132341717137284</v>
       </c>
       <c r="C54">
-        <v>-0.0314036293177007</v>
+        <v>-0.01270939468528335</v>
       </c>
       <c r="D54">
-        <v>0.01879564406270584</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02147696309440717</v>
+      </c>
+      <c r="E54">
+        <v>0.05856689734454897</v>
+      </c>
+      <c r="F54">
+        <v>0.02545691521629139</v>
+      </c>
+      <c r="G54">
+        <v>-0.05495865835732134</v>
+      </c>
+      <c r="H54">
+        <v>-0.04330711490510101</v>
+      </c>
+      <c r="I54">
+        <v>-0.05369941902526247</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09961767185201645</v>
+        <v>-0.1012611300660012</v>
       </c>
       <c r="C55">
-        <v>-0.05186701875845952</v>
+        <v>-0.0126574110793912</v>
       </c>
       <c r="D55">
-        <v>0.006524601386937902</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.03876825662035691</v>
+      </c>
+      <c r="E55">
+        <v>-0.005096217224088206</v>
+      </c>
+      <c r="F55">
+        <v>0.01670634104531453</v>
+      </c>
+      <c r="G55">
+        <v>-0.01157197949560587</v>
+      </c>
+      <c r="H55">
+        <v>-0.1572746072557904</v>
+      </c>
+      <c r="I55">
+        <v>-0.02263179219990864</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1456671759571124</v>
+        <v>-0.1521572565689818</v>
       </c>
       <c r="C56">
-        <v>-0.09039542329488208</v>
+        <v>-0.02826054329164237</v>
       </c>
       <c r="D56">
-        <v>-0.008200204462392001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.06534898207642049</v>
+      </c>
+      <c r="E56">
+        <v>-0.02139411755246054</v>
+      </c>
+      <c r="F56">
+        <v>0.01153332426228228</v>
+      </c>
+      <c r="G56">
+        <v>-0.00608922345347213</v>
+      </c>
+      <c r="H56">
+        <v>-0.2024277062071929</v>
+      </c>
+      <c r="I56">
+        <v>0.04325560310807613</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2344,1127 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.121913001352762</v>
+        <v>-0.09157182420110885</v>
       </c>
       <c r="C58">
-        <v>0.01405486503259437</v>
+        <v>0.06624335948338192</v>
       </c>
       <c r="D58">
-        <v>0.05072306370717371</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.0007658657813699809</v>
+      </c>
+      <c r="E58">
+        <v>0.1089097509061438</v>
+      </c>
+      <c r="F58">
+        <v>0.03442487353773898</v>
+      </c>
+      <c r="G58">
+        <v>0.06055462516682181</v>
+      </c>
+      <c r="H58">
+        <v>0.2031178156395613</v>
+      </c>
+      <c r="I58">
+        <v>-0.4608906196620516</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1195059310931271</v>
+        <v>-0.1500334844686455</v>
       </c>
       <c r="C59">
-        <v>-0.05170072878428312</v>
+        <v>-0.2605702237344304</v>
       </c>
       <c r="D59">
-        <v>-0.414765271386211</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2593223702936408</v>
+      </c>
+      <c r="E59">
+        <v>0.02854992096187785</v>
+      </c>
+      <c r="F59">
+        <v>0.006043222139540083</v>
+      </c>
+      <c r="G59">
+        <v>-0.004373946089922181</v>
+      </c>
+      <c r="H59">
+        <v>-0.01917260635299186</v>
+      </c>
+      <c r="I59">
+        <v>0.00987569318174728</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.2119031199895809</v>
+        <v>-0.2409467422798394</v>
       </c>
       <c r="C60">
-        <v>-0.09313943467836289</v>
+        <v>-0.03182601513759587</v>
       </c>
       <c r="D60">
-        <v>-0.005256037119959678</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.0635921570214491</v>
+      </c>
+      <c r="E60">
+        <v>-0.1288705049557633</v>
+      </c>
+      <c r="F60">
+        <v>0.04245839297366393</v>
+      </c>
+      <c r="G60">
+        <v>0.02239824548762339</v>
+      </c>
+      <c r="H60">
+        <v>0.1553275618162743</v>
+      </c>
+      <c r="I60">
+        <v>0.03874304016410719</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.07743160871124222</v>
+        <v>-0.08539830102589888</v>
       </c>
       <c r="C61">
-        <v>-0.04866414193303972</v>
+        <v>-0.006479476227940248</v>
       </c>
       <c r="D61">
-        <v>0.0299360170039549</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.05354467358298041</v>
+      </c>
+      <c r="E61">
+        <v>0.01027922622410439</v>
+      </c>
+      <c r="F61">
+        <v>0.01593913099705292</v>
+      </c>
+      <c r="G61">
+        <v>-0.02922693497744297</v>
+      </c>
+      <c r="H61">
+        <v>-0.0672246670237881</v>
+      </c>
+      <c r="I61">
+        <v>-0.02832844758688976</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
-        <v>0.1298503354576854</v>
+        <v>-0.1372533241407624</v>
       </c>
       <c r="C62">
-        <v>-0.04808476574257822</v>
+        <v>0.00185773583853029</v>
       </c>
       <c r="D62">
-        <v>-0.005081776448411806</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.04524525336209649</v>
+      </c>
+      <c r="E62">
+        <v>-0.04236788401432024</v>
+      </c>
+      <c r="F62">
+        <v>-0.02936344597972693</v>
+      </c>
+      <c r="G62">
+        <v>-0.02941694203572252</v>
+      </c>
+      <c r="H62">
+        <v>-0.2033304087575066</v>
+      </c>
+      <c r="I62">
+        <v>0.1005472802274141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.05077644981571688</v>
+        <v>-0.04854271441005351</v>
       </c>
       <c r="C63">
-        <v>-0.02610298351195257</v>
+        <v>-0.0004050867724457976</v>
       </c>
       <c r="D63">
-        <v>0.02675718684212403</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02788917312952131</v>
+      </c>
+      <c r="E63">
+        <v>0.03724198552125856</v>
+      </c>
+      <c r="F63">
+        <v>0.002260199414002123</v>
+      </c>
+      <c r="G63">
+        <v>-0.03737476038754147</v>
+      </c>
+      <c r="H63">
+        <v>-0.0393184247465584</v>
+      </c>
+      <c r="I63">
+        <v>0.01238322306117945</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.1052678872130676</v>
+        <v>-0.1108056143782756</v>
       </c>
       <c r="C64">
-        <v>-0.04607224241706066</v>
+        <v>-0.01202253679208358</v>
       </c>
       <c r="D64">
-        <v>0.017256459325425</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.0370206734430699</v>
+      </c>
+      <c r="E64">
+        <v>0.03667466297684244</v>
+      </c>
+      <c r="F64">
+        <v>0.04761978589379694</v>
+      </c>
+      <c r="G64">
+        <v>-0.05763359572885198</v>
+      </c>
+      <c r="H64">
+        <v>-0.00955291245656309</v>
+      </c>
+      <c r="I64">
+        <v>-0.02753119177128273</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.1281629116664413</v>
+        <v>-0.1334268801587474</v>
       </c>
       <c r="C65">
-        <v>-0.05964695873288651</v>
+        <v>-0.03329553817109011</v>
       </c>
       <c r="D65">
-        <v>0.004420995285911327</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.0290892206663893</v>
+      </c>
+      <c r="E65">
+        <v>-0.003667508265595573</v>
+      </c>
+      <c r="F65">
+        <v>0.03850075626300112</v>
+      </c>
+      <c r="G65">
+        <v>-0.07753836071639604</v>
+      </c>
+      <c r="H65">
+        <v>0.1870253591490143</v>
+      </c>
+      <c r="I65">
+        <v>0.04021685077897148</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.1483104068413491</v>
+        <v>-0.1516392256694561</v>
       </c>
       <c r="C66">
-        <v>-0.09212314739873423</v>
+        <v>0.008145343204732938</v>
       </c>
       <c r="D66">
-        <v>0.0907223675604559</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1177154326589576</v>
+      </c>
+      <c r="E66">
+        <v>-0.02371183113406248</v>
+      </c>
+      <c r="F66">
+        <v>-0.00184825891928712</v>
+      </c>
+      <c r="G66">
+        <v>-0.07862387461699893</v>
+      </c>
+      <c r="H66">
+        <v>-0.07915075156423255</v>
+      </c>
+      <c r="I66">
+        <v>-0.08550075905070015</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.0846670078530028</v>
+        <v>-0.08844494425844493</v>
       </c>
       <c r="C67">
-        <v>-0.01733571453931304</v>
+        <v>0.01812778958769396</v>
       </c>
       <c r="D67">
-        <v>0.01386514593518497</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03158742815721029</v>
+      </c>
+      <c r="E67">
+        <v>0.01954444905185138</v>
+      </c>
+      <c r="F67">
+        <v>0.01254992121007047</v>
+      </c>
+      <c r="G67">
+        <v>0.01636093806358719</v>
+      </c>
+      <c r="H67">
+        <v>-0.02577199732340743</v>
+      </c>
+      <c r="I67">
+        <v>0.00836485679332901</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.04740626301189964</v>
+        <v>-0.06446718487299108</v>
       </c>
       <c r="C68">
-        <v>-0.02916123329975006</v>
+        <v>-0.2002728312524872</v>
       </c>
       <c r="D68">
-        <v>-0.2607244653955673</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.1981701618639287</v>
+      </c>
+      <c r="E68">
+        <v>0.04317454557133038</v>
+      </c>
+      <c r="F68">
+        <v>0.01188195416807861</v>
+      </c>
+      <c r="G68">
+        <v>-0.00277919538365682</v>
+      </c>
+      <c r="H68">
+        <v>-0.01368410613941325</v>
+      </c>
+      <c r="I68">
+        <v>-0.02629904150391707</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.05825561412075445</v>
+        <v>-0.05439852251119127</v>
       </c>
       <c r="C69">
-        <v>-0.02538280622875675</v>
+        <v>0.00405934575318856</v>
       </c>
       <c r="D69">
-        <v>0.01729297288499249</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.02309512308777508</v>
+      </c>
+      <c r="E69">
+        <v>0.02180704483608477</v>
+      </c>
+      <c r="F69">
+        <v>-0.01434576521263927</v>
+      </c>
+      <c r="G69">
+        <v>0.002300157650553874</v>
+      </c>
+      <c r="H69">
+        <v>-0.04037614524068433</v>
+      </c>
+      <c r="I69">
+        <v>-0.01484141576436236</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
-        <v>0.0114697447519081</v>
+        <v>-0.03350232241332189</v>
       </c>
       <c r="C70">
-        <v>0.004184972548737354</v>
+        <v>-0.001425895204476869</v>
       </c>
       <c r="D70">
-        <v>-0.01118496783158311</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.007539001822631651</v>
+      </c>
+      <c r="E70">
+        <v>-0.02221670419422725</v>
+      </c>
+      <c r="F70">
+        <v>-0.008220154808868339</v>
+      </c>
+      <c r="G70">
+        <v>0.02818419177052162</v>
+      </c>
+      <c r="H70">
+        <v>0.02402838840584711</v>
+      </c>
+      <c r="I70">
+        <v>0.06802012533294875</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.04468407368241565</v>
+        <v>-0.07048898998084235</v>
       </c>
       <c r="C71">
-        <v>-0.02473752277078769</v>
+        <v>-0.21709994512684</v>
       </c>
       <c r="D71">
-        <v>-0.2904595023792974</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2151191817152643</v>
+      </c>
+      <c r="E71">
+        <v>0.03798954636327369</v>
+      </c>
+      <c r="F71">
+        <v>0.03899898818587384</v>
+      </c>
+      <c r="G71">
+        <v>0.000648525163988058</v>
+      </c>
+      <c r="H71">
+        <v>-0.01245780780279271</v>
+      </c>
+      <c r="I71">
+        <v>-0.0247910646687689</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1419428591892655</v>
+        <v>-0.1424725397658184</v>
       </c>
       <c r="C72">
-        <v>-0.06017186027008972</v>
+        <v>-0.02788220616284235</v>
       </c>
       <c r="D72">
-        <v>-0.02729437461618792</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.01301307804378015</v>
+      </c>
+      <c r="E72">
+        <v>-0.03247828415113057</v>
+      </c>
+      <c r="F72">
+        <v>-0.1614741498602805</v>
+      </c>
+      <c r="G72">
+        <v>-0.1161462226932146</v>
+      </c>
+      <c r="H72">
+        <v>0.002512666004806389</v>
+      </c>
+      <c r="I72">
+        <v>-0.04111079142735646</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2784793093117475</v>
+        <v>-0.2786878301906029</v>
       </c>
       <c r="C73">
-        <v>-0.08442146889054508</v>
+        <v>0.03714955566811739</v>
       </c>
       <c r="D73">
-        <v>0.03665350312914362</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.08469531073604722</v>
+      </c>
+      <c r="E73">
+        <v>-0.2845740094409147</v>
+      </c>
+      <c r="F73">
+        <v>0.04328856481811119</v>
+      </c>
+      <c r="G73">
+        <v>0.2370157372498584</v>
+      </c>
+      <c r="H73">
+        <v>0.384006980526281</v>
+      </c>
+      <c r="I73">
+        <v>-0.2067739560995033</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.07843317365564728</v>
+        <v>-0.08943354395366342</v>
       </c>
       <c r="C74">
-        <v>-0.075150680995031</v>
+        <v>-0.02712875463780706</v>
       </c>
       <c r="D74">
-        <v>0.003110632075254687</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.06421264212004239</v>
+      </c>
+      <c r="E74">
+        <v>-0.008905459334325997</v>
+      </c>
+      <c r="F74">
+        <v>-0.002000761196812338</v>
+      </c>
+      <c r="G74">
+        <v>0.03442164977627808</v>
+      </c>
+      <c r="H74">
+        <v>-0.1294883932983946</v>
+      </c>
+      <c r="I74">
+        <v>-0.0329509436054567</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.1071621687669287</v>
+        <v>-0.1042073053130209</v>
       </c>
       <c r="C75">
-        <v>-0.04907389160851421</v>
+        <v>-0.002406224313504854</v>
       </c>
       <c r="D75">
-        <v>-0.002663504155423609</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03039341088246353</v>
+      </c>
+      <c r="E75">
+        <v>0.001328882533088486</v>
+      </c>
+      <c r="F75">
+        <v>-0.000916458936798489</v>
+      </c>
+      <c r="G75">
+        <v>0.01168857117437588</v>
+      </c>
+      <c r="H75">
+        <v>-0.1122353907135764</v>
+      </c>
+      <c r="I75">
+        <v>0.05191952709559929</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1288353523568039</v>
+        <v>-0.1375361518081584</v>
       </c>
       <c r="C76">
-        <v>-0.07025507599952144</v>
+        <v>-0.01240228526377666</v>
       </c>
       <c r="D76">
-        <v>0.01742249461057941</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.06744931405032673</v>
+      </c>
+      <c r="E76">
+        <v>0.006623866245959498</v>
+      </c>
+      <c r="F76">
+        <v>0.03244111793705024</v>
+      </c>
+      <c r="G76">
+        <v>7.664358009266189e-06</v>
+      </c>
+      <c r="H76">
+        <v>-0.2513353867030808</v>
+      </c>
+      <c r="I76">
+        <v>0.06024743567381509</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.123399336429178</v>
+        <v>-0.100613345191675</v>
       </c>
       <c r="C77">
-        <v>-0.02026732915209068</v>
+        <v>0.04041227629838402</v>
       </c>
       <c r="D77">
-        <v>0.07733763512218976</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.02679925202777501</v>
+      </c>
+      <c r="E77">
+        <v>0.07193377178234062</v>
+      </c>
+      <c r="F77">
+        <v>0.08022198802831829</v>
+      </c>
+      <c r="G77">
+        <v>-0.7969415536387481</v>
+      </c>
+      <c r="H77">
+        <v>0.2565747372150773</v>
+      </c>
+      <c r="I77">
+        <v>0.2789962956186687</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.1087068774469145</v>
+        <v>-0.1511683217779242</v>
       </c>
       <c r="C78">
-        <v>-0.04791889982313841</v>
+        <v>0.0005780367937800215</v>
       </c>
       <c r="D78">
-        <v>0.07921997520870758</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.08791732690354898</v>
+      </c>
+      <c r="E78">
+        <v>0.04719864422542523</v>
+      </c>
+      <c r="F78">
+        <v>0.05693018155298762</v>
+      </c>
+      <c r="G78">
+        <v>-0.02854793576341515</v>
+      </c>
+      <c r="H78">
+        <v>0.1062008379343698</v>
+      </c>
+      <c r="I78">
+        <v>-0.06103950138774911</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.1398781569386031</v>
+        <v>-0.1439841051076604</v>
       </c>
       <c r="C79">
-        <v>-0.06367687293480412</v>
+        <v>-0.003334760015934136</v>
       </c>
       <c r="D79">
-        <v>0.02604712347193544</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05566547987580856</v>
+      </c>
+      <c r="E79">
+        <v>-0.01343830002658271</v>
+      </c>
+      <c r="F79">
+        <v>0.01837074406837125</v>
+      </c>
+      <c r="G79">
+        <v>-0.01680360663176635</v>
+      </c>
+      <c r="H79">
+        <v>-0.1722027751201692</v>
+      </c>
+      <c r="I79">
+        <v>0.01928204298874808</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.03430245440202611</v>
+        <v>-0.03812775968089201</v>
       </c>
       <c r="C80">
-        <v>-0.02433096818171276</v>
+        <v>-0.006917154914488943</v>
       </c>
       <c r="D80">
-        <v>0.02760754155987992</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.02198093398771266</v>
+      </c>
+      <c r="E80">
+        <v>-0.04720139553350321</v>
+      </c>
+      <c r="F80">
+        <v>0.003378669170519405</v>
+      </c>
+      <c r="G80">
+        <v>0.007848737813100401</v>
+      </c>
+      <c r="H80">
+        <v>-0.02325231656637346</v>
+      </c>
+      <c r="I80">
+        <v>-0.09959591041845131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1258852041881783</v>
+        <v>-0.1281030378086767</v>
       </c>
       <c r="C81">
-        <v>-0.07449216965273922</v>
+        <v>-0.02186740005568482</v>
       </c>
       <c r="D81">
-        <v>0.01026581190142781</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.04905956420554169</v>
+      </c>
+      <c r="E81">
+        <v>-0.003180885912793998</v>
+      </c>
+      <c r="F81">
+        <v>0.01994090799535524</v>
+      </c>
+      <c r="G81">
+        <v>0.007300081523793874</v>
+      </c>
+      <c r="H81">
+        <v>-0.1552590666724271</v>
+      </c>
+      <c r="I81">
+        <v>-0.01050404255985679</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.1293311284253959</v>
+        <v>-0.1306513444186198</v>
       </c>
       <c r="C82">
-        <v>-0.06615623181713212</v>
+        <v>-0.01727614236574234</v>
       </c>
       <c r="D82">
-        <v>0.01055578663467655</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.04866109069267013</v>
+      </c>
+      <c r="E82">
+        <v>-0.02028539173865731</v>
+      </c>
+      <c r="F82">
+        <v>0.03407694751988507</v>
+      </c>
+      <c r="G82">
+        <v>0.01107834464629522</v>
+      </c>
+      <c r="H82">
+        <v>-0.2417872810240197</v>
+      </c>
+      <c r="I82">
+        <v>0.05386134748999517</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.06673723600362882</v>
+        <v>-0.08159570688742727</v>
       </c>
       <c r="C83">
-        <v>0.02992665307146621</v>
+        <v>0.04625375431418908</v>
       </c>
       <c r="D83">
-        <v>0.02839486158125802</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.0003248007562239968</v>
+      </c>
+      <c r="E83">
+        <v>0.01966268163983602</v>
+      </c>
+      <c r="F83">
+        <v>0.0350353290141581</v>
+      </c>
+      <c r="G83">
+        <v>0.05821636664496168</v>
+      </c>
+      <c r="H83">
+        <v>0.01784594158585802</v>
+      </c>
+      <c r="I83">
+        <v>-0.07106543062977817</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.03006853082670294</v>
+        <v>-0.03282426286581411</v>
       </c>
       <c r="C84">
-        <v>-0.04440802038724648</v>
+        <v>-0.003755033682474315</v>
       </c>
       <c r="D84">
-        <v>0.02885834563359004</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.05080956047909045</v>
+      </c>
+      <c r="E84">
+        <v>0.02037923234704864</v>
+      </c>
+      <c r="F84">
+        <v>-0.04242632324382847</v>
+      </c>
+      <c r="G84">
+        <v>0.01915047479027199</v>
+      </c>
+      <c r="H84">
+        <v>-0.02548648419293163</v>
+      </c>
+      <c r="I84">
+        <v>-0.05218669156501185</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1167223002382074</v>
+        <v>-0.1221511487598038</v>
       </c>
       <c r="C85">
-        <v>-0.04278522801475974</v>
+        <v>0.005690244185787324</v>
       </c>
       <c r="D85">
-        <v>0.04290389597451538</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.04535256684564794</v>
+      </c>
+      <c r="E85">
+        <v>0.00789619580316208</v>
+      </c>
+      <c r="F85">
+        <v>0.03890563872364892</v>
+      </c>
+      <c r="G85">
+        <v>0.007756681246830684</v>
+      </c>
+      <c r="H85">
+        <v>-0.1471233574920694</v>
+      </c>
+      <c r="I85">
+        <v>0.005642575731056074</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.04706111813110837</v>
+        <v>-0.04896887115401415</v>
       </c>
       <c r="C86">
-        <v>-0.03355684383288412</v>
+        <v>0.007221937651658671</v>
       </c>
       <c r="D86">
-        <v>0.06817539664705301</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.04487869481389532</v>
+      </c>
+      <c r="E86">
+        <v>0.03635399980616401</v>
+      </c>
+      <c r="F86">
+        <v>0.02310760499539945</v>
+      </c>
+      <c r="G86">
+        <v>0.01169351617373168</v>
+      </c>
+      <c r="H86">
+        <v>0.04626517158253218</v>
+      </c>
+      <c r="I86">
+        <v>0.05869326453863754</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.1219409826489956</v>
+        <v>-0.1261957685430927</v>
       </c>
       <c r="C87">
-        <v>-0.07578749835361238</v>
+        <v>0.00502562604126796</v>
       </c>
       <c r="D87">
-        <v>0.06514310389951694</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08173103031996871</v>
+      </c>
+      <c r="E87">
+        <v>0.02896117041473931</v>
+      </c>
+      <c r="F87">
+        <v>0.02872503049342152</v>
+      </c>
+      <c r="G87">
+        <v>-0.1509755075908295</v>
+      </c>
+      <c r="H87">
+        <v>0.07106107893147605</v>
+      </c>
+      <c r="I87">
+        <v>-0.00154256265314484</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05754019959071789</v>
+        <v>-0.06443334703286595</v>
       </c>
       <c r="C88">
-        <v>-0.03469175464091007</v>
+        <v>0.00272041307789697</v>
       </c>
       <c r="D88">
-        <v>0.02717848153451404</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04721843503412511</v>
+      </c>
+      <c r="E88">
+        <v>-0.0003828846291796104</v>
+      </c>
+      <c r="F88">
+        <v>0.02419228872925202</v>
+      </c>
+      <c r="G88">
+        <v>-0.007127826768258756</v>
+      </c>
+      <c r="H88">
+        <v>-0.04259283545112926</v>
+      </c>
+      <c r="I88">
+        <v>-0.01736979934451487</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.0741997616528513</v>
+        <v>-0.1097497890998966</v>
       </c>
       <c r="C89">
-        <v>-0.04804180761411551</v>
+        <v>-0.2714332079912478</v>
       </c>
       <c r="D89">
-        <v>-0.3236473885502194</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2475596060685868</v>
+      </c>
+      <c r="E89">
+        <v>0.05044760419530819</v>
+      </c>
+      <c r="F89">
+        <v>0.07662518576199343</v>
+      </c>
+      <c r="G89">
+        <v>0.02979874742050449</v>
+      </c>
+      <c r="H89">
+        <v>-0.0221662493930644</v>
+      </c>
+      <c r="I89">
+        <v>-0.07867749786465456</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.06010656806442146</v>
+        <v>-0.08432742906262929</v>
       </c>
       <c r="C90">
-        <v>-0.02968476515235385</v>
+        <v>-0.2096811491562098</v>
       </c>
       <c r="D90">
-        <v>-0.2779962546929854</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2080872590730566</v>
+      </c>
+      <c r="E90">
+        <v>0.05335972414270313</v>
+      </c>
+      <c r="F90">
+        <v>0.03158659587799421</v>
+      </c>
+      <c r="G90">
+        <v>-0.03121433012072556</v>
+      </c>
+      <c r="H90">
+        <v>0.02292229334156495</v>
+      </c>
+      <c r="I90">
+        <v>-0.07871332536420045</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.09265640647655056</v>
+        <v>-0.09089933130422058</v>
       </c>
       <c r="C91">
-        <v>-0.05191059192245209</v>
+        <v>-0.004909039236852291</v>
       </c>
       <c r="D91">
-        <v>0.00513735084293501</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03986691657258115</v>
+      </c>
+      <c r="E91">
+        <v>0.002244231075435755</v>
+      </c>
+      <c r="F91">
+        <v>0.004795771934439602</v>
+      </c>
+      <c r="G91">
+        <v>0.02317558144689537</v>
+      </c>
+      <c r="H91">
+        <v>-0.08916764330711154</v>
+      </c>
+      <c r="I91">
+        <v>0.04216209431130469</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.0614531618812874</v>
+        <v>-0.0847604119284987</v>
       </c>
       <c r="C92">
-        <v>-0.0383277570863011</v>
+        <v>-0.2428304518765786</v>
       </c>
       <c r="D92">
-        <v>-0.3344136159384216</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2366783409349165</v>
+      </c>
+      <c r="E92">
+        <v>0.05086872208218587</v>
+      </c>
+      <c r="F92">
+        <v>0.04018746861445589</v>
+      </c>
+      <c r="G92">
+        <v>0.0006123983061862315</v>
+      </c>
+      <c r="H92">
+        <v>-0.02650967328778745</v>
+      </c>
+      <c r="I92">
+        <v>-0.02894487921678412</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.05200331926147125</v>
+        <v>-0.08071217629255387</v>
       </c>
       <c r="C93">
-        <v>-0.04489378108281468</v>
+        <v>-0.2369266855703335</v>
       </c>
       <c r="D93">
-        <v>-0.3088488430649488</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2113291648943225</v>
+      </c>
+      <c r="E93">
+        <v>0.01207790965803778</v>
+      </c>
+      <c r="F93">
+        <v>0.02913301573307546</v>
+      </c>
+      <c r="G93">
+        <v>-0.0243560666664119</v>
+      </c>
+      <c r="H93">
+        <v>-0.002603232101999781</v>
+      </c>
+      <c r="I93">
+        <v>-0.01288578036309943</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.1324179063282067</v>
+        <v>-0.1278464851294069</v>
       </c>
       <c r="C94">
-        <v>-0.03540791084478496</v>
+        <v>0.02081161125443723</v>
       </c>
       <c r="D94">
-        <v>0.03991325002809706</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.03875416674542482</v>
+      </c>
+      <c r="E94">
+        <v>-0.02154481056004998</v>
+      </c>
+      <c r="F94">
+        <v>0.01805808375530665</v>
+      </c>
+      <c r="G94">
+        <v>0.0441517995534389</v>
+      </c>
+      <c r="H94">
+        <v>-0.1060603228822925</v>
+      </c>
+      <c r="I94">
+        <v>-0.01270808226475252</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1201127552755538</v>
+        <v>-0.1324344007934753</v>
       </c>
       <c r="C95">
-        <v>-0.03204850423021086</v>
+        <v>0.02697907546385555</v>
       </c>
       <c r="D95">
-        <v>0.06502217395436156</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.05818290887648259</v>
+      </c>
+      <c r="E95">
+        <v>0.006128776349248769</v>
+      </c>
+      <c r="F95">
+        <v>0.05189553751976051</v>
+      </c>
+      <c r="G95">
+        <v>-0.04388585317459044</v>
+      </c>
+      <c r="H95">
+        <v>0.11898074181868</v>
+      </c>
+      <c r="I95">
+        <v>0.05916744453804133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3475,112 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0.2328703168643684</v>
+        <v>-0.192468428984941</v>
       </c>
       <c r="C97">
-        <v>-0.04670981988689026</v>
+        <v>-0.00775657502937749</v>
       </c>
       <c r="D97">
-        <v>-0.1268800286394753</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.06183546981176186</v>
+      </c>
+      <c r="E97">
+        <v>0.01146138053282994</v>
+      </c>
+      <c r="F97">
+        <v>-0.9365680123168697</v>
+      </c>
+      <c r="G97">
+        <v>-0.06805061658326378</v>
+      </c>
+      <c r="H97">
+        <v>0.02245859104198979</v>
+      </c>
+      <c r="I97">
+        <v>-0.02265179179226841</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2485203883287525</v>
+        <v>-0.2783118688928823</v>
       </c>
       <c r="C98">
-        <v>-0.05488977020768374</v>
+        <v>0.0108406666306971</v>
       </c>
       <c r="D98">
-        <v>0.009855305482395573</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.04110454595817135</v>
+      </c>
+      <c r="E98">
+        <v>-0.2156418431284854</v>
+      </c>
+      <c r="F98">
+        <v>0.02341408434677627</v>
+      </c>
+      <c r="G98">
+        <v>0.2968989817629654</v>
+      </c>
+      <c r="H98">
+        <v>0.1392214096301503</v>
+      </c>
+      <c r="I98">
+        <v>0.5890629427603821</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
-        <v>0.4070381497482228</v>
+        <v>-0.2601969196108013</v>
       </c>
       <c r="C99">
-        <v>0.8948174743446702</v>
+        <v>0.716157249829613</v>
       </c>
       <c r="D99">
-        <v>0.001262886818152303</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.6125965217881193</v>
+      </c>
+      <c r="E99">
+        <v>0.09133502798437412</v>
+      </c>
+      <c r="F99">
+        <v>0.08415994433438707</v>
+      </c>
+      <c r="G99">
+        <v>0.005880474525849244</v>
+      </c>
+      <c r="H99">
+        <v>-0.07370622801330806</v>
+      </c>
+      <c r="I99">
+        <v>-0.007430799791629127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3591,54 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.04444889328097279</v>
+        <v>-0.05019299272979906</v>
       </c>
       <c r="C101">
-        <v>-0.0416071517479524</v>
+        <v>-0.02301102898081171</v>
       </c>
       <c r="D101">
-        <v>-0.0007200707729070666</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02885144583743815</v>
+      </c>
+      <c r="E101">
+        <v>0.04895839406066094</v>
+      </c>
+      <c r="F101">
+        <v>0.02828221303770821</v>
+      </c>
+      <c r="G101">
+        <v>-0.003197135620366768</v>
+      </c>
+      <c r="H101">
+        <v>-0.09103694915652574</v>
+      </c>
+      <c r="I101">
+        <v>-0.008591491936949384</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3649,25 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
